--- a/reports/vivado/CodeHoistingSolution/power/CodeHoistingDSPPowerReport.xlsx
+++ b/reports/vivado/CodeHoistingSolution/power/CodeHoistingDSPPowerReport.xlsx
@@ -172,7 +172,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>4.1490732110105455E-4</v>
+        <v>4.1467678966000676E-4</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -198,7 +198,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>2.239521563751623E-4</v>
+        <v>2.3120432160794735E-4</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
@@ -219,12 +219,12 @@
         <v>13</v>
       </c>
       <c r="H3" t="n" s="2">
-        <v>5.435896873474121</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>1.9095516472589225E-4</v>
+        <v>1.8347245350014418E-4</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>14</v>
@@ -245,7 +245,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>5.50295877456665</v>
+        <v>5.390532970428467</v>
       </c>
     </row>
   </sheetData>
